--- a/data/pca/factorExposure/factorExposure_2012-10-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-04.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001653800804244161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001886542036794402</v>
+      </c>
+      <c r="C2">
+        <v>0.02832688149864229</v>
+      </c>
+      <c r="D2">
+        <v>0.00520430266132417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0002236793551438431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006960925274273525</v>
+      </c>
+      <c r="C4">
+        <v>0.08293691260289299</v>
+      </c>
+      <c r="D4">
+        <v>0.07159000969330716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004769503949834845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01418257868818751</v>
+      </c>
+      <c r="C6">
+        <v>0.1140693283360402</v>
+      </c>
+      <c r="D6">
+        <v>0.02497768031618199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0004510910812443044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004972384597070572</v>
+      </c>
+      <c r="C7">
+        <v>0.05793855924278157</v>
+      </c>
+      <c r="D7">
+        <v>0.03376402762295123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0005789971359720442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005925955745268197</v>
+      </c>
+      <c r="C8">
+        <v>0.03564442444740431</v>
+      </c>
+      <c r="D8">
+        <v>0.03900054583029423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002520206322949306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005105800738922223</v>
+      </c>
+      <c r="C9">
+        <v>0.07029490490067668</v>
+      </c>
+      <c r="D9">
+        <v>0.0766591484511767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001626733334282871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005203548566071077</v>
+      </c>
+      <c r="C10">
+        <v>0.05540127462603765</v>
+      </c>
+      <c r="D10">
+        <v>-0.193835662785695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003208936462030769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005571302079830173</v>
+      </c>
+      <c r="C11">
+        <v>0.07908941184173568</v>
+      </c>
+      <c r="D11">
+        <v>0.06516521924877328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001531744820396016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004102260172082877</v>
+      </c>
+      <c r="C12">
+        <v>0.06448372973566494</v>
+      </c>
+      <c r="D12">
+        <v>0.05180467851316042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002639633599169836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008214441517773759</v>
+      </c>
+      <c r="C13">
+        <v>0.06678245645261545</v>
+      </c>
+      <c r="D13">
+        <v>0.06358524346530565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002073762087979249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.000674330665535081</v>
+      </c>
+      <c r="C14">
+        <v>0.04239684300607309</v>
+      </c>
+      <c r="D14">
+        <v>0.01211335352643522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0002606174108067788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005832547816597951</v>
+      </c>
+      <c r="C15">
+        <v>0.04029407295664758</v>
+      </c>
+      <c r="D15">
+        <v>0.02901622716622237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0007581803591243634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004978845011006638</v>
+      </c>
+      <c r="C16">
+        <v>0.06405332068761901</v>
+      </c>
+      <c r="D16">
+        <v>0.05776846002922865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0005046004132813911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008799579340818504</v>
+      </c>
+      <c r="C20">
+        <v>0.06314705083713622</v>
+      </c>
+      <c r="D20">
+        <v>0.05153827684061395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005937578442209244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00921123917078045</v>
+      </c>
+      <c r="C21">
+        <v>0.01970056155713407</v>
+      </c>
+      <c r="D21">
+        <v>0.04273490283910718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02337762210414722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007088340675899978</v>
+      </c>
+      <c r="C22">
+        <v>0.08662943910466332</v>
+      </c>
+      <c r="D22">
+        <v>0.1245068384188644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02316309723137987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006901082748052116</v>
+      </c>
+      <c r="C23">
+        <v>0.08708376529784644</v>
+      </c>
+      <c r="D23">
+        <v>0.1254116688440214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002576962615296703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005547455944274714</v>
+      </c>
+      <c r="C24">
+        <v>0.07578364051537821</v>
+      </c>
+      <c r="D24">
+        <v>0.06838744058493697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004336467218686333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003096632124576789</v>
+      </c>
+      <c r="C25">
+        <v>0.07772171829580754</v>
+      </c>
+      <c r="D25">
+        <v>0.06678100910748573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003551535039872878</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003552371726980004</v>
+      </c>
+      <c r="C26">
+        <v>0.0384877088286086</v>
+      </c>
+      <c r="D26">
+        <v>0.02489813340847307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007638714552815815</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00160615821389785</v>
+      </c>
+      <c r="C28">
+        <v>0.1042896996526227</v>
+      </c>
+      <c r="D28">
+        <v>-0.3226689043472107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001085077500469113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002618050763269038</v>
+      </c>
+      <c r="C29">
+        <v>0.04861845058516231</v>
+      </c>
+      <c r="D29">
+        <v>0.0112502365791813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005690222695676048</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009559334381960636</v>
+      </c>
+      <c r="C30">
+        <v>0.1412279882246482</v>
+      </c>
+      <c r="D30">
+        <v>0.1093302671021355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001388670559669686</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006245506074880781</v>
+      </c>
+      <c r="C31">
+        <v>0.04309933144059379</v>
+      </c>
+      <c r="D31">
+        <v>0.03304250525567563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001968217726582449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003375629191480058</v>
+      </c>
+      <c r="C32">
+        <v>0.03930068163614591</v>
+      </c>
+      <c r="D32">
+        <v>0.02390881071403625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001562188560516984</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009066838747477622</v>
+      </c>
+      <c r="C33">
+        <v>0.08816093661663953</v>
+      </c>
+      <c r="D33">
+        <v>0.06619223229139011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.00356617379535904</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004140114405930607</v>
+      </c>
+      <c r="C34">
+        <v>0.05759370131951647</v>
+      </c>
+      <c r="D34">
+        <v>0.05826815278344909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007757887881811205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005194642078089117</v>
+      </c>
+      <c r="C35">
+        <v>0.0401188489838103</v>
+      </c>
+      <c r="D35">
+        <v>0.02121105846062374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00548415565579155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001620901657983506</v>
+      </c>
+      <c r="C36">
+        <v>0.02400306593930979</v>
+      </c>
+      <c r="D36">
+        <v>0.02669537690140122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>2.090608279435938e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.00931477196562845</v>
+      </c>
+      <c r="C38">
+        <v>0.03799062097533819</v>
+      </c>
+      <c r="D38">
+        <v>0.01601580634356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01352203143864728</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001503422856568781</v>
+      </c>
+      <c r="C39">
+        <v>0.1133591465496954</v>
+      </c>
+      <c r="D39">
+        <v>0.07722013921528563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008006186473056363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003715961361906455</v>
+      </c>
+      <c r="C40">
+        <v>0.09051072456783767</v>
+      </c>
+      <c r="D40">
+        <v>0.01936839176529302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0006947940799548569</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007231884536173504</v>
+      </c>
+      <c r="C41">
+        <v>0.03884477346510328</v>
+      </c>
+      <c r="D41">
+        <v>0.03973637748748213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002605535179769692</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003866663529652007</v>
+      </c>
+      <c r="C43">
+        <v>0.05273041729564597</v>
+      </c>
+      <c r="D43">
+        <v>0.0277571471925637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01401891841009721</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002679827029196425</v>
+      </c>
+      <c r="C44">
+        <v>0.1039099426219914</v>
+      </c>
+      <c r="D44">
+        <v>0.06910731015573207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009177817530372483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001593818537394914</v>
+      </c>
+      <c r="C46">
+        <v>0.03247421673772545</v>
+      </c>
+      <c r="D46">
+        <v>0.03510179138926296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001576150824420589</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002061280744785274</v>
+      </c>
+      <c r="C47">
+        <v>0.03485830234267188</v>
+      </c>
+      <c r="D47">
+        <v>0.02274795967996288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003015772262946606</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006477286300321882</v>
+      </c>
+      <c r="C48">
+        <v>0.02978189228521479</v>
+      </c>
+      <c r="D48">
+        <v>0.03730206908534376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.006914846145856929</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01757729672375773</v>
+      </c>
+      <c r="C49">
+        <v>0.1900896837901233</v>
+      </c>
+      <c r="D49">
+        <v>0.006683082380295932</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004353044791213509</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003527885108980902</v>
+      </c>
+      <c r="C50">
+        <v>0.0420438567043484</v>
+      </c>
+      <c r="D50">
+        <v>0.03969276551538672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0001567578848407595</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004904709788465091</v>
+      </c>
+      <c r="C51">
+        <v>0.02605326117595655</v>
+      </c>
+      <c r="D51">
+        <v>0.02215345023310872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.002328583413259525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02122903046026826</v>
+      </c>
+      <c r="C53">
+        <v>0.1712804790571003</v>
+      </c>
+      <c r="D53">
+        <v>0.02144103245232522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001901003169138452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009064820625648519</v>
+      </c>
+      <c r="C54">
+        <v>0.05458898765851335</v>
+      </c>
+      <c r="D54">
+        <v>0.04327386359558855</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003270737937833884</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009479766542574817</v>
+      </c>
+      <c r="C55">
+        <v>0.1074895188631848</v>
+      </c>
+      <c r="D55">
+        <v>0.04022333383351238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00462526998732737</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02029537619120689</v>
+      </c>
+      <c r="C56">
+        <v>0.1756213207526925</v>
+      </c>
+      <c r="D56">
+        <v>0.01384431170829047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00354179496257879</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01893943205809432</v>
+      </c>
+      <c r="C58">
+        <v>0.1036618038305985</v>
+      </c>
+      <c r="D58">
+        <v>0.07398209576574037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007235292996018847</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01020496380093057</v>
+      </c>
+      <c r="C59">
+        <v>0.1690479640540664</v>
+      </c>
+      <c r="D59">
+        <v>-0.3415631567839166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.001697714468055411</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02510526533547243</v>
+      </c>
+      <c r="C60">
+        <v>0.2263468061123363</v>
+      </c>
+      <c r="D60">
+        <v>0.01830021612412384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01222552884335838</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001882665411094744</v>
+      </c>
+      <c r="C61">
+        <v>0.0942402697718069</v>
+      </c>
+      <c r="D61">
+        <v>0.05799185932599166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1550409402620939</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.149398902676338</v>
+      </c>
+      <c r="C62">
+        <v>0.09687204966593312</v>
+      </c>
+      <c r="D62">
+        <v>0.02510666137124551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001044611296063267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006309064292538669</v>
+      </c>
+      <c r="C63">
+        <v>0.05273831565021812</v>
+      </c>
+      <c r="D63">
+        <v>0.03439471611128025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002078218751386103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01563410601675987</v>
+      </c>
+      <c r="C64">
+        <v>0.1046165944692831</v>
+      </c>
+      <c r="D64">
+        <v>0.05688363742095453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003088277232959064</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0176583979329087</v>
+      </c>
+      <c r="C65">
+        <v>0.1213289451936033</v>
+      </c>
+      <c r="D65">
+        <v>0.02726366385057199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.004009991626635706</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01319498311796934</v>
+      </c>
+      <c r="C66">
+        <v>0.1614538148566894</v>
+      </c>
+      <c r="D66">
+        <v>0.1084302715818284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002415892317244595</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01556668355248152</v>
+      </c>
+      <c r="C67">
+        <v>0.0702162381866171</v>
+      </c>
+      <c r="D67">
+        <v>0.0271931455236624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005843233766985402</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001058921735335773</v>
+      </c>
+      <c r="C68">
+        <v>0.08671444879333856</v>
+      </c>
+      <c r="D68">
+        <v>-0.2562330266884527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001036787155352452</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006438010612451627</v>
+      </c>
+      <c r="C69">
+        <v>0.05274050495774493</v>
+      </c>
+      <c r="D69">
+        <v>0.03670917252332221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0007681205458657753</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002138272457726061</v>
+      </c>
+      <c r="C70">
+        <v>0.006183456383674096</v>
+      </c>
+      <c r="D70">
+        <v>0.002201905958641734</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001268587851999345</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005722285773721317</v>
+      </c>
+      <c r="C71">
+        <v>0.09135452587915674</v>
+      </c>
+      <c r="D71">
+        <v>-0.3006839126706373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003823553613854766</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01637033985194827</v>
+      </c>
+      <c r="C72">
+        <v>0.1569711080508576</v>
+      </c>
+      <c r="D72">
+        <v>0.01168173596087785</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.006194291642543428</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03142009075084922</v>
+      </c>
+      <c r="C73">
+        <v>0.2823218910452456</v>
+      </c>
+      <c r="D73">
+        <v>0.05621661014530201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005680137880342247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001947805206038994</v>
+      </c>
+      <c r="C74">
+        <v>0.1015158265551873</v>
+      </c>
+      <c r="D74">
+        <v>0.03716844749373641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003793975119835558</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01059119540992972</v>
+      </c>
+      <c r="C75">
+        <v>0.121990439222219</v>
+      </c>
+      <c r="D75">
+        <v>0.02433591570978244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008691507120541926</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02227625450034771</v>
+      </c>
+      <c r="C76">
+        <v>0.14672891272706</v>
+      </c>
+      <c r="D76">
+        <v>0.05846873053772071</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0008809640595551338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02117747904930066</v>
+      </c>
+      <c r="C77">
+        <v>0.112919302558333</v>
+      </c>
+      <c r="D77">
+        <v>0.05259578790533496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.00105468760493097</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01482552304125665</v>
+      </c>
+      <c r="C78">
+        <v>0.09672094118627957</v>
+      </c>
+      <c r="D78">
+        <v>0.08096927807090176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0224477193826505</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0382892293066138</v>
+      </c>
+      <c r="C79">
+        <v>0.156054588326516</v>
+      </c>
+      <c r="D79">
+        <v>0.03353242491996253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006601506349806603</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01004270564122013</v>
+      </c>
+      <c r="C80">
+        <v>0.03793412041432437</v>
+      </c>
+      <c r="D80">
+        <v>0.03107886002821906</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.000953557355323109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01576430632862714</v>
+      </c>
+      <c r="C81">
+        <v>0.1298607544489004</v>
+      </c>
+      <c r="D81">
+        <v>0.03734112411947302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005042694743920831</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01989209272537441</v>
+      </c>
+      <c r="C82">
+        <v>0.1387962498620055</v>
+      </c>
+      <c r="D82">
+        <v>0.03700925489116715</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.004783487471161026</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01132297197320494</v>
+      </c>
+      <c r="C83">
+        <v>0.06237177585228514</v>
+      </c>
+      <c r="D83">
+        <v>0.04447125759467143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01113504846717919</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01211660750519519</v>
+      </c>
+      <c r="C84">
+        <v>0.03762587909301499</v>
+      </c>
+      <c r="D84">
+        <v>-0.00245564835446696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01408544269768161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02888488353540783</v>
+      </c>
+      <c r="C85">
+        <v>0.1237288408835248</v>
+      </c>
+      <c r="D85">
+        <v>0.03854200635231216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003230186518972849</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004345789811304182</v>
+      </c>
+      <c r="C86">
+        <v>0.05045252678552981</v>
+      </c>
+      <c r="D86">
+        <v>0.02659773045842802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002401137700032651</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01091737277719648</v>
+      </c>
+      <c r="C87">
+        <v>0.1271317641565776</v>
+      </c>
+      <c r="D87">
+        <v>0.07812968658682708</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01076661303413056</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002985397018910356</v>
+      </c>
+      <c r="C88">
+        <v>0.06333944391052616</v>
+      </c>
+      <c r="D88">
+        <v>0.02660158517952758</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01187678791260688</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001861299979040994</v>
+      </c>
+      <c r="C89">
+        <v>0.1396944095246488</v>
+      </c>
+      <c r="D89">
+        <v>-0.3183463901406515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003832309092094469</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006690339287697925</v>
+      </c>
+      <c r="C90">
+        <v>0.1207116280908776</v>
+      </c>
+      <c r="D90">
+        <v>-0.3135119291858273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0007849575729788895</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01030788337764258</v>
+      </c>
+      <c r="C91">
+        <v>0.09946396476378232</v>
+      </c>
+      <c r="D91">
+        <v>0.02432445834564754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008887110146665059</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004995007527280617</v>
+      </c>
+      <c r="C92">
+        <v>0.1341805860470461</v>
+      </c>
+      <c r="D92">
+        <v>-0.3226007039005131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00306748486440265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004232637175079347</v>
+      </c>
+      <c r="C93">
+        <v>0.1052370725911471</v>
+      </c>
+      <c r="D93">
+        <v>-0.2979595833739017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003134844424141633</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02149224563612091</v>
+      </c>
+      <c r="C94">
+        <v>0.1425075010288757</v>
+      </c>
+      <c r="D94">
+        <v>0.05260277550982501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.001942268065945758</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01642668062957663</v>
+      </c>
+      <c r="C95">
+        <v>0.1216877041758783</v>
+      </c>
+      <c r="D95">
+        <v>0.06555276374645796</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.006469882099092039</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03675074052849724</v>
+      </c>
+      <c r="C97">
+        <v>0.2258407309962489</v>
+      </c>
+      <c r="D97">
+        <v>0.0009883381611408028</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003641970024893116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03782520054191266</v>
+      </c>
+      <c r="C98">
+        <v>0.2579353951577901</v>
+      </c>
+      <c r="D98">
+        <v>0.0343738367569514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860215089469958</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813535514184126</v>
+      </c>
+      <c r="C99">
+        <v>-0.1191592750026554</v>
+      </c>
+      <c r="D99">
+        <v>-0.02400992445213929</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001013329091211636</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002660538664692193</v>
+      </c>
+      <c r="C101">
+        <v>0.04874204285018445</v>
+      </c>
+      <c r="D101">
+        <v>0.01165113491130865</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
